--- a/LaborShortageUSA/pqselectionresult.xlsx
+++ b/LaborShortageUSA/pqselectionresult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A6674-CC35-49C2-89E2-239C2A85AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8EED21-E927-49DA-B1A3-CED8143858A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2655" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
   </bookViews>
@@ -1103,7 +1103,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1130,13 +1130,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>0.66544195930000005</v>
+        <v>0.4793065541</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -16046,10 +16046,10 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16111,16 +16111,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1.73837E-25</v>
+        <v>2.9324399999999999E-32</v>
       </c>
       <c r="E3">
-        <v>0.74244081689999997</v>
+        <v>0.7239889062</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0.46821961309999999</v>
+        <v>0.89786980869999999</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -16149,16 +16149,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0.60069108510000002</v>
+        <v>1.8658917099999998E-2</v>
       </c>
       <c r="E4">
-        <v>0.6642841008</v>
+        <v>0.74537782180000001</v>
       </c>
       <c r="F4" s="1">
-        <v>3.5116104799999999E-2</v>
+        <v>1.15895E-15</v>
       </c>
       <c r="G4" s="1">
-        <v>5.9790000000000005E-54</v>
+        <v>4.4091198700000001E-2</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -16187,16 +16187,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.91146696410000005</v>
+        <v>0.82865977759999998</v>
       </c>
       <c r="E5">
-        <v>0.150059101</v>
+        <v>0.2581912401</v>
       </c>
       <c r="F5" s="1">
-        <v>0.74495749960000002</v>
+        <v>0.4267381059</v>
       </c>
       <c r="G5" s="1">
-        <v>9.5110000000000002E-125</v>
+        <v>2.3675E-176</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -16225,16 +16225,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>5.1815100000000002E-18</v>
+        <v>0.22193701809999999</v>
       </c>
       <c r="E6">
-        <v>0.75299628429999999</v>
+        <v>0.86905762939999998</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>7.08988E-7</v>
       </c>
       <c r="G6" s="1">
-        <v>0.31175152569999998</v>
+        <v>4.8203100000000001E-21</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -16263,16 +16263,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>0.86188909349999998</v>
+        <v>0.97265415870000005</v>
       </c>
       <c r="E7">
-        <v>-0.11712266490000001</v>
+        <v>0.48155045810000002</v>
       </c>
       <c r="F7" s="1">
-        <v>0.96631175280000003</v>
+        <v>0.26248414329999997</v>
       </c>
       <c r="G7" s="1">
-        <v>2.5239999999999999E-127</v>
+        <v>1.82009E-51</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -16301,16 +16301,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>0.96480216919999995</v>
+        <v>0.30260768170000002</v>
       </c>
       <c r="E8">
-        <v>0.8372533861</v>
+        <v>0.81197088399999995</v>
       </c>
       <c r="F8" s="1">
-        <v>1.9999391000000001E-3</v>
+        <v>3.5180351000000001E-3</v>
       </c>
       <c r="G8" s="1">
-        <v>3.2496600000000001E-8</v>
+        <v>3.4204500000000001E-5</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -16339,16 +16339,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>3.6913700000000002E-25</v>
+        <v>0.24108556819999999</v>
       </c>
       <c r="E9">
-        <v>0.75423490829999995</v>
+        <v>0.97766118280000003</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>7.5021784999999997E-3</v>
       </c>
       <c r="G9" s="1">
-        <v>0.98495851440000004</v>
+        <v>2.26034E-20</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -16377,19 +16377,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>4.5050699999999997E-15</v>
+        <v>7.8461799999999998E-6</v>
       </c>
       <c r="E10">
-        <v>0.74849707399999998</v>
+        <v>0.73092782060000006</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0.43445603469999999</v>
+        <v>0.2562192935</v>
       </c>
       <c r="H10">
-        <v>2.67853646E-2</v>
+        <v>1.2182706E-3</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -16415,19 +16415,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>1.6329699999999999E-21</v>
+        <v>0.95411778589999996</v>
       </c>
       <c r="E11">
-        <v>0.74327767109999998</v>
+        <v>0.276400337</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>0.88760310070000004</v>
       </c>
       <c r="G11">
-        <v>0.46532174720000002</v>
+        <v>0.5610637987</v>
       </c>
       <c r="H11">
-        <v>0.92850081559999997</v>
+        <v>0.88017912359999995</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -16453,19 +16453,19 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0.71176512970000005</v>
+        <v>0.67131210180000001</v>
       </c>
       <c r="E12">
-        <v>0.48782067379999999</v>
+        <v>0.47168259940000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1.06526252E-2</v>
+        <v>1.0972058200000001E-2</v>
       </c>
       <c r="G12">
-        <v>0.55071019600000004</v>
+        <v>0.3423878233</v>
       </c>
       <c r="H12">
-        <v>0.2244947357</v>
+        <v>0.2345298478</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -16491,19 +16491,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>1.7196499999999999E-13</v>
+        <v>5.9432589199999997E-2</v>
       </c>
       <c r="E13">
-        <v>0.75742389509999997</v>
+        <v>0.79993705640000001</v>
       </c>
       <c r="F13" s="1">
-        <v>9.5835000000000005E-191</v>
+        <v>5.8291881000000004E-3</v>
       </c>
       <c r="G13">
-        <v>0.4583419735</v>
+        <v>0.44180638680000001</v>
       </c>
       <c r="H13">
-        <v>0.4967400703</v>
+        <v>0.57049223319999998</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -16529,19 +16529,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>0.42776730839999999</v>
+        <v>0.30259287080000002</v>
       </c>
       <c r="E14">
-        <v>0.82793143680000003</v>
+        <v>0.58218347680000004</v>
       </c>
       <c r="F14" s="1">
-        <v>1.0766669000000001E-3</v>
+        <v>6.9943983000000003E-3</v>
       </c>
       <c r="G14" s="1">
-        <v>0.55862095290000002</v>
+        <v>0.85639306969999995</v>
       </c>
       <c r="H14">
-        <v>0.36944140539999998</v>
+        <v>0.53022256700000003</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -16567,19 +16567,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>0.5168108589</v>
+        <v>0.42554743229999997</v>
       </c>
       <c r="E15">
-        <v>0.66544195930000005</v>
+        <v>0.62252529459999995</v>
       </c>
       <c r="F15" s="1">
-        <v>2.2429786899999998E-2</v>
+        <v>7.9878584000000006E-3</v>
       </c>
       <c r="G15">
-        <v>0.92041404969999996</v>
+        <v>0.6472203272</v>
       </c>
       <c r="H15">
-        <v>0.61061946899999997</v>
+        <v>0.63030433370000005</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -16605,19 +16605,19 @@
         <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>0.92162039370000004</v>
+        <v>9.1263469599999994E-2</v>
       </c>
       <c r="E16">
-        <v>0.75517700399999999</v>
+        <v>0.7747898715</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>8.7930599999999993E-18</v>
       </c>
       <c r="G16">
-        <v>0.77537236509999996</v>
+        <v>0.46664058860000002</v>
       </c>
       <c r="H16">
-        <v>0.75513904220000005</v>
+        <v>0.7135812091</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -16643,22 +16643,22 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>2.8869900000000002E-23</v>
+        <v>1.6719100000000001E-20</v>
       </c>
       <c r="E17">
-        <v>0.74863354419999995</v>
+        <v>0.73167249310000004</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0.37257542430000001</v>
+        <v>0.54363402660000004</v>
       </c>
       <c r="H17">
-        <v>7.8153711099999995E-2</v>
+        <v>1.1430888599999999E-2</v>
       </c>
       <c r="I17" s="1">
-        <v>0.33811082190000002</v>
+        <v>0.37467950230000002</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -16680,23 +16680,23 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>0.25707756440000001</v>
+      <c r="D18" s="1">
+        <v>1.7282699999999999E-7</v>
       </c>
       <c r="E18">
-        <v>0.62738214059999997</v>
+        <v>0.72819894429999998</v>
       </c>
       <c r="F18" s="1">
-        <v>2.64579E-5</v>
+        <v>6.3490500000000001E-87</v>
       </c>
       <c r="G18">
-        <v>2.97960751E-2</v>
+        <v>2.81240785E-2</v>
       </c>
       <c r="H18">
-        <v>0.84283084959999999</v>
+        <v>0.2218690348</v>
       </c>
       <c r="I18" s="1">
-        <v>8.9784580200000005E-2</v>
+        <v>0.1162343831</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -16719,22 +16719,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>0.54310332149999996</v>
+        <v>0.59220602219999996</v>
       </c>
       <c r="E19">
-        <v>0.58807860499999998</v>
+        <v>0.53588846670000001</v>
       </c>
       <c r="F19" s="1">
-        <v>3.0461095399999999E-2</v>
+        <v>4.3735323100000001E-2</v>
       </c>
       <c r="G19">
-        <v>0.36161020799999999</v>
+        <v>0.20905439980000001</v>
       </c>
       <c r="H19">
-        <v>0.33128697629999998</v>
+        <v>0.36202557610000002</v>
       </c>
       <c r="I19">
-        <v>0.70498162480000004</v>
+        <v>0.79017477449999995</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -16757,22 +16757,22 @@
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>1.37829E-11</v>
+        <v>0.84750050929999998</v>
       </c>
       <c r="E20">
-        <v>0.76082044680000005</v>
+        <v>0.21562149410000001</v>
       </c>
       <c r="F20" s="1">
-        <v>2.6485000000000001E-117</v>
+        <v>0.66665133219999995</v>
       </c>
       <c r="G20">
-        <v>0.50724441679999999</v>
+        <v>3.8508771E-3</v>
       </c>
       <c r="H20">
-        <v>0.4092860451</v>
+        <v>0.84342239529999996</v>
       </c>
       <c r="I20">
-        <v>0.94062663349999998</v>
+        <v>0.1528836666</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -16795,22 +16795,22 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>0.65806640279999995</v>
+        <v>0.95932778139999997</v>
       </c>
       <c r="E21">
-        <v>0.51117449930000003</v>
+        <v>1.037970574</v>
       </c>
       <c r="F21" s="1">
-        <v>0.61766028049999999</v>
+        <v>0.28980443569999997</v>
       </c>
       <c r="G21">
-        <v>0.34543916419999998</v>
+        <v>4.9844628600000003E-2</v>
       </c>
       <c r="H21">
-        <v>0.83011465269999996</v>
+        <v>0.84874520769999995</v>
       </c>
       <c r="I21">
-        <v>0.33554722590000002</v>
+        <v>0.82584263800000002</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -16833,22 +16833,22 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>0.2099536749</v>
+        <v>0.84984141739999997</v>
       </c>
       <c r="E22">
-        <v>0.80307798789999996</v>
+        <v>1.1532046309999999</v>
       </c>
       <c r="F22" s="1">
-        <v>7.0750399999999999E-5</v>
+        <v>2.7502531199999999E-2</v>
       </c>
       <c r="G22">
-        <v>0.86742561819999997</v>
+        <v>0.13639057509999999</v>
       </c>
       <c r="H22">
-        <v>0.62222975920000001</v>
+        <v>0.8704825759</v>
       </c>
       <c r="I22">
-        <v>0.8343636794</v>
+        <v>0.92804017760000002</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -16871,22 +16871,22 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>0.95953182339999998</v>
+        <v>0.110091308</v>
       </c>
       <c r="E23">
-        <v>0.1123995699</v>
+        <v>0.80835377129999997</v>
       </c>
       <c r="F23" s="1">
-        <v>0.96005218719999996</v>
+        <v>9.3568079999999999E-4</v>
       </c>
       <c r="G23">
-        <v>0.52534936340000005</v>
+        <v>0.36364871809999999</v>
       </c>
       <c r="H23">
-        <v>0.99509010149999999</v>
+        <v>0.69220899719999995</v>
       </c>
       <c r="I23">
-        <v>0.84024681970000004</v>
+        <v>0.77188997699999995</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -16909,25 +16909,25 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>6.4232000000000002E-23</v>
+        <v>4.9221100000000001E-7</v>
       </c>
       <c r="E24">
-        <v>0.74889406319999996</v>
+        <v>0.73411378059999999</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.41142906880000002</v>
+        <v>7.5852272200000001E-2</v>
       </c>
       <c r="H24">
-        <v>0.2364002577</v>
+        <v>6.0352345000000002E-3</v>
       </c>
       <c r="I24" s="1">
-        <v>7.9486172399999999E-2</v>
+        <v>0.1847774006</v>
       </c>
       <c r="J24">
-        <v>0.82638242429999997</v>
+        <v>1.5875618800000001E-2</v>
       </c>
       <c r="K24" t="s">
         <v>0</v>
@@ -16947,25 +16947,25 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>0.99169767490000005</v>
+        <v>0.9880659316</v>
       </c>
       <c r="E25">
-        <v>0.73552321350000005</v>
+        <v>0.53440588200000005</v>
       </c>
       <c r="F25" s="1">
-        <v>0.4164842373</v>
+        <v>0.30932437619999997</v>
       </c>
       <c r="G25">
-        <v>6.5710309699999997E-2</v>
+        <v>0.41208449330000002</v>
       </c>
       <c r="H25">
-        <v>0.95083919719999999</v>
+        <v>0.67831668889999996</v>
       </c>
       <c r="I25">
-        <v>0.81838565659999996</v>
+        <v>0.50544643919999999</v>
       </c>
       <c r="J25">
-        <v>0.64456615350000002</v>
+        <v>0.74478809550000002</v>
       </c>
       <c r="K25" t="s">
         <v>0</v>
@@ -16985,25 +16985,25 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>0.15483704479999999</v>
+        <v>0.35288887810000003</v>
       </c>
       <c r="E26">
-        <v>0.66811397610000001</v>
+        <v>0.58056576630000001</v>
       </c>
       <c r="F26" s="1">
-        <v>3.5277599999999998E-8</v>
+        <v>1.044904E-4</v>
       </c>
       <c r="G26">
-        <v>0.92333542430000004</v>
+        <v>0.97452704229999998</v>
       </c>
       <c r="H26">
-        <v>0.36190921990000002</v>
+        <v>0.20503592239999999</v>
       </c>
       <c r="I26">
-        <v>0.25818531459999999</v>
+        <v>0.75737371850000001</v>
       </c>
       <c r="J26">
-        <v>0.67034960880000005</v>
+        <v>0.55801892580000001</v>
       </c>
       <c r="K26" t="s">
         <v>0</v>
@@ -17023,25 +17023,25 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>1.2215600000000001E-9</v>
+        <v>0.18090472199999999</v>
       </c>
       <c r="E27">
-        <v>0.76509612760000001</v>
+        <v>0.8714345872</v>
       </c>
       <c r="F27" s="1">
-        <v>1.6473000000000001E-132</v>
+        <v>7.4647739999999998E-4</v>
       </c>
       <c r="G27">
-        <v>0.85800535430000002</v>
+        <v>0.37643594359999999</v>
       </c>
       <c r="H27">
-        <v>0.3993414851</v>
+        <v>0.59909197260000002</v>
       </c>
       <c r="I27">
-        <v>0.76001008940000003</v>
+        <v>0.80105961680000004</v>
       </c>
       <c r="J27">
-        <v>0.69576176990000005</v>
+        <v>0.99114043839999999</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
@@ -17061,25 +17061,25 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>0.3634392991</v>
+        <v>0.99670054770000005</v>
       </c>
       <c r="E28">
-        <v>0.7736583883</v>
+        <v>0.4793065541</v>
       </c>
       <c r="F28" s="1">
-        <v>3.97507E-26</v>
+        <v>1.40452344E-2</v>
       </c>
       <c r="G28">
-        <v>0.88562037680000005</v>
+        <v>0.65636068869999997</v>
       </c>
       <c r="H28">
-        <v>0.27789773089999997</v>
+        <v>0.6807667878</v>
       </c>
       <c r="I28">
-        <v>0.80410130290000004</v>
+        <v>0.8340391559</v>
       </c>
       <c r="J28">
-        <v>0.74298508480000003</v>
+        <v>0.57475354489999997</v>
       </c>
       <c r="K28" t="s">
         <v>0</v>
@@ -17099,25 +17099,25 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>0.83729680979999999</v>
+        <v>0.84942138730000005</v>
       </c>
       <c r="E29">
-        <v>0.74858792539999996</v>
+        <v>1.0185296210000001</v>
       </c>
       <c r="F29" s="1">
-        <v>0.3608700749</v>
+        <v>0.75250395049999996</v>
       </c>
       <c r="G29">
-        <v>0.94392695429999995</v>
+        <v>0.80945233670000005</v>
       </c>
       <c r="H29">
-        <v>0.97596713280000003</v>
+        <v>0.94502613329999996</v>
       </c>
       <c r="I29">
-        <v>0.97030589690000002</v>
+        <v>0.98851976959999999</v>
       </c>
       <c r="J29">
-        <v>0.95588297450000004</v>
+        <v>0.97006875920000002</v>
       </c>
       <c r="K29" t="s">
         <v>0</v>
@@ -17137,25 +17137,25 @@
         <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>1.02613568E-2</v>
+        <v>0.30523665509999998</v>
       </c>
       <c r="E30">
-        <v>0.77111786569999996</v>
+        <v>0.80423412169999997</v>
       </c>
       <c r="F30" s="1">
-        <v>2.3632473899999999E-2</v>
+        <v>0.1010006249</v>
       </c>
       <c r="G30">
-        <v>0.88029413359999997</v>
+        <v>0.38103781050000002</v>
       </c>
       <c r="H30">
-        <v>0.84786725279999997</v>
+        <v>0.76210226290000005</v>
       </c>
       <c r="I30">
-        <v>0.87728389110000005</v>
+        <v>0.77760972340000001</v>
       </c>
       <c r="J30">
-        <v>0.88812318000000001</v>
+        <v>0.99128927759999996</v>
       </c>
       <c r="K30" t="s">
         <v>0</v>
@@ -17175,28 +17175,28 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>1.8574200000000001E-18</v>
+        <v>3.1555200000000001E-18</v>
       </c>
       <c r="E31">
-        <v>0.75614571699999999</v>
+        <v>0.73515673280000005</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.40471949169999999</v>
+        <v>0.4202914083</v>
       </c>
       <c r="H31">
-        <v>0.16951165670000001</v>
+        <v>1.3288546599999999E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>9.0929280299999998E-2</v>
+        <v>0.80278078210000003</v>
       </c>
       <c r="J31">
-        <v>0.99931126260000003</v>
+        <v>0.2945383345</v>
       </c>
       <c r="K31">
-        <v>0.38697565499999997</v>
+        <v>0.3897916105</v>
       </c>
       <c r="L31" t="s">
         <v>1</v>
@@ -17212,29 +17212,29 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>3.4325051199999998E-2</v>
+      <c r="D32" s="1">
+        <v>6.8781499999999994E-11</v>
       </c>
       <c r="E32">
-        <v>0.68548826350000003</v>
+        <v>0.72859884949999998</v>
       </c>
       <c r="F32" s="1">
-        <v>6.3690000000000005E-17</v>
+        <v>8.8849999999999994E-111</v>
       </c>
       <c r="G32">
-        <v>0.97355559329999997</v>
+        <v>5.0135619700000002E-2</v>
       </c>
       <c r="H32">
-        <v>0.4961015728</v>
+        <v>0.15947705340000001</v>
       </c>
       <c r="I32">
-        <v>2.1255917700000002E-2</v>
+        <v>0.1403950014</v>
       </c>
       <c r="J32">
-        <v>0.54399016489999996</v>
+        <v>0.70947125680000001</v>
       </c>
       <c r="K32">
-        <v>0.46680280190000001</v>
+        <v>0.43940060580000001</v>
       </c>
       <c r="L32" t="s">
         <v>1</v>
@@ -17251,28 +17251,28 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>0.5321478946</v>
+        <v>0.29669684660000001</v>
       </c>
       <c r="E33">
-        <v>0.59257549099999995</v>
+        <v>0.59492124339999997</v>
       </c>
       <c r="F33" s="1">
-        <v>8.1293788500000005E-2</v>
+        <v>3.7273809999999999E-4</v>
       </c>
       <c r="G33">
-        <v>0.97619732049999997</v>
+        <v>0.63325445300000005</v>
       </c>
       <c r="H33">
-        <v>0.33596337720000002</v>
+        <v>0.32823393680000001</v>
       </c>
       <c r="I33">
-        <v>0.90171033639999998</v>
+        <v>0.58927567219999999</v>
       </c>
       <c r="J33">
-        <v>0.8710677631</v>
+        <v>0.71401948169999996</v>
       </c>
       <c r="K33">
-        <v>0.60103841209999997</v>
+        <v>0.9846091776</v>
       </c>
       <c r="L33" t="s">
         <v>1</v>
@@ -17289,28 +17289,28 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>2.9482645000000001E-3</v>
+        <v>0.88105058469999997</v>
       </c>
       <c r="E34">
-        <v>0.76805516579999999</v>
+        <v>1.2246938089999999</v>
       </c>
       <c r="F34" s="1">
-        <v>1.1109E-86</v>
+        <v>2.02860105E-2</v>
       </c>
       <c r="G34">
-        <v>0.62433955289999998</v>
+        <v>0.1234070825</v>
       </c>
       <c r="H34">
-        <v>0.6317006597</v>
+        <v>0.83972245180000005</v>
       </c>
       <c r="I34">
-        <v>0.65090686799999997</v>
+        <v>0.76435269559999997</v>
       </c>
       <c r="J34">
-        <v>0.53466695679999998</v>
+        <v>0.77662448210000001</v>
       </c>
       <c r="K34">
-        <v>0.83646848929999995</v>
+        <v>0.4750890894</v>
       </c>
       <c r="L34" t="s">
         <v>1</v>
@@ -17327,28 +17327,28 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>0.50604959829999996</v>
+        <v>0.61809009940000004</v>
       </c>
       <c r="E35">
-        <v>0.670419561</v>
+        <v>0.53967793850000001</v>
       </c>
       <c r="F35" s="1">
-        <v>1.9731815600000001E-2</v>
+        <v>1.2606557999999999E-3</v>
       </c>
       <c r="G35">
-        <v>0.75717068600000004</v>
+        <v>0.59344070319999997</v>
       </c>
       <c r="H35">
-        <v>0.76266412859999999</v>
+        <v>0.54580897449999999</v>
       </c>
       <c r="I35">
-        <v>0.98991196260000003</v>
+        <v>0.68108866400000001</v>
       </c>
       <c r="J35">
-        <v>0.89122093670000002</v>
+        <v>0.43376129930000001</v>
       </c>
       <c r="K35">
-        <v>0.91938253589999996</v>
+        <v>0.82048227009999997</v>
       </c>
       <c r="L35" t="s">
         <v>1</v>
@@ -17365,28 +17365,28 @@
         <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>6.7362599999999999E-6</v>
+        <v>0.62904594960000004</v>
       </c>
       <c r="E36">
-        <v>0.78116980160000005</v>
+        <v>0.95591621059999998</v>
       </c>
       <c r="F36" s="1">
-        <v>1.03793E-8</v>
+        <v>0.1188978904</v>
       </c>
       <c r="G36">
-        <v>0.96770710199999999</v>
+        <v>0.2212609341</v>
       </c>
       <c r="H36">
-        <v>0.87342497500000005</v>
+        <v>0.66777709419999998</v>
       </c>
       <c r="I36">
-        <v>0.79774394299999996</v>
+        <v>0.88980317320000002</v>
       </c>
       <c r="J36">
-        <v>0.76589005229999996</v>
+        <v>0.69592882430000003</v>
       </c>
       <c r="K36">
-        <v>0.9595836391</v>
+        <v>0.78173355430000002</v>
       </c>
       <c r="L36" t="s">
         <v>1</v>
@@ -17403,28 +17403,28 @@
         <v>6</v>
       </c>
       <c r="D37" s="1">
-        <v>0.67510089500000003</v>
+        <v>0.57384108869999995</v>
       </c>
       <c r="E37">
-        <v>0.77430800310000003</v>
+        <v>0.82298504370000003</v>
       </c>
       <c r="F37" s="1">
-        <v>0.26008442259999998</v>
+        <v>5.2001783999999999E-3</v>
       </c>
       <c r="G37">
-        <v>0.91374195940000003</v>
+        <v>0.89394906549999997</v>
       </c>
       <c r="H37">
-        <v>0.78035465709999996</v>
+        <v>0.90119600960000001</v>
       </c>
       <c r="I37">
-        <v>0.80940475079999996</v>
+        <v>0.76443252319999999</v>
       </c>
       <c r="J37">
-        <v>0.82905161390000004</v>
+        <v>0.78432357799999997</v>
       </c>
       <c r="K37">
-        <v>0.96701579670000004</v>
+        <v>0.6962631359</v>
       </c>
       <c r="L37" t="s">
         <v>1</v>
